--- a/AnswerSheet-30.xlsx
+++ b/AnswerSheet-30.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
